--- a/biology/Botanique/Myrtillocactus/Myrtillocactus.xlsx
+++ b/biology/Botanique/Myrtillocactus/Myrtillocactus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Myrtillocactus est un genre de plantes à fleurs de la famille des Cactaceae (les cactus).
 Le nom vient du mot myrtille en raison de l'apparence des fruits.
@@ -516,13 +528,15 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Liste d'espèces
-Myrtillocactus cochal
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Myrtillocactus cochal
 Myrtillocactus geometrizans, l'espèce la plus connue
-Myrtillocactus schenkii
-Synonymes
-Myrtillocereus Fric &amp; Kreuz. (orth. var.)
-Myrtgerocactus, un hybride naturel de Myrtillocactus cochal</t>
+Myrtillocactus schenkii</t>
         </is>
       </c>
     </row>
@@ -547,10 +561,49 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Myrtillocereus Fric &amp; Kreuz. (orth. var.)
+Myrtgerocactus, un hybride naturel de Myrtillocactus cochal</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Myrtillocactus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Myrtillocactus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La plante forme des candélabres pouvant atteindre 3 à 4 m de haut avec de nombreuses ramifications dès que la plante dépasse 80 cm.
 Elle est de couleur vert glauque. Les tiges sont marquées de lignes obliques transversales qui témoignent des phases de la croissance.
@@ -561,31 +614,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Myrtillocactus</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Myrtillocactus</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Mode de culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">De culture facile, ils peuvent servir de porte-greffe.
 Ils supportent que la température descende à 0 °C s'ils sont bien tenus au sec. 
